--- a/Reports/MarketBeatRank/2019/T_INV19_LARGE/ETFC.xlsx
+++ b/Reports/MarketBeatRank/2019/T_INV19_LARGE/ETFC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7374" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19155" uniqueCount="71">
   <si>
     <t>Mar_31</t>
   </si>
@@ -191,6 +191,48 @@
   </si>
   <si>
     <t>Jun_09</t>
+  </si>
+  <si>
+    <t>Jun_16</t>
+  </si>
+  <si>
+    <t>Jun_24</t>
+  </si>
+  <si>
+    <t>Jun_30</t>
+  </si>
+  <si>
+    <t>Jul_07</t>
+  </si>
+  <si>
+    <t>Jul_17</t>
+  </si>
+  <si>
+    <t>7/11/2019,Lowers Target,Overweight,$61.00 -&gt; $55.00</t>
+  </si>
+  <si>
+    <t>Jul_23</t>
+  </si>
+  <si>
+    <t>7/19/2019,Set Price Target,Buy,$57.00</t>
+  </si>
+  <si>
+    <t>7/23/2019,Upgrades,Sell -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>7/19/2019,Raises Target,Overweight,$53.00 -&gt; $56.00</t>
+  </si>
+  <si>
+    <t>Aug_04</t>
+  </si>
+  <si>
+    <t>8/2/2019,Upgrades,Hold -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>Aug_25</t>
+  </si>
+  <si>
+    <t>Sep_08</t>
   </si>
 </sst>
 </file>
@@ -207,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +311,36 @@
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -282,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="632">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -552,6 +624,294 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -960,59 +1320,95 @@
     <col min="11" max="11" customWidth="true" width="10.0" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="10.0" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1068,6 +1464,33 @@
       <c r="Q2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1082,8 +1505,8 @@
       <c r="D3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>2</v>
+      <c r="E3" s="505" t="s">
+        <v>64</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>2</v>
@@ -1119,6 +1542,33 @@
         <v>2</v>
       </c>
       <c r="Q3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1174,6 +1624,33 @@
       <c r="Q4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1185,46 +1662,73 @@
       <c r="C5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="251" t="s">
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="251" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="187" t="s">
+      <c r="N5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="155" t="s">
+      <c r="P5" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>2</v>
-      </c>
       <c r="Q5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1280,6 +1784,33 @@
       <c r="Q6" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1297,40 +1828,67 @@
       <c r="E7" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>2</v>
+      <c r="F7" s="477" t="s">
+        <v>62</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="127" t="s">
+      <c r="H7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="0" t="s">
+      <c r="R7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1386,6 +1944,33 @@
       <c r="Q8" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1439,6 +2024,33 @@
       <c r="Q9" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1492,6 +2104,33 @@
       <c r="Q10" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1545,6 +2184,33 @@
       <c r="Q11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1598,6 +2264,33 @@
       <c r="Q12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1651,6 +2344,33 @@
       <c r="Q13" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1704,6 +2424,33 @@
       <c r="Q14" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1757,6 +2504,33 @@
       <c r="Q15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1810,6 +2584,33 @@
       <c r="Q16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1863,6 +2664,33 @@
       <c r="Q17" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1916,6 +2744,33 @@
       <c r="Q18" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1969,6 +2824,33 @@
       <c r="Q19" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -2022,6 +2904,33 @@
       <c r="Q20" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -2075,6 +2984,33 @@
       <c r="Q21" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -2086,46 +3022,73 @@
       <c r="C22" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="268" t="s">
+      <c r="D22" s="556" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="524" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="268" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" s="52" t="s">
+      <c r="N22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P22" s="1" t="s">
+      <c r="U22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q22" s="0" t="s">
+      <c r="Z22" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2181,6 +3144,33 @@
       <c r="Q23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -2234,6 +3224,33 @@
       <c r="Q24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -2287,6 +3304,33 @@
       <c r="Q25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2340,6 +3384,33 @@
       <c r="Q26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2354,8 +3425,8 @@
       <c r="D27" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>2</v>
+      <c r="E27" s="529" t="s">
+        <v>66</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>2</v>
@@ -2391,6 +3462,33 @@
         <v>2</v>
       </c>
       <c r="Q27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2446,6 +3544,33 @@
       <c r="Q28" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -2499,6 +3624,33 @@
       <c r="Q29" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="R29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -2549,6 +3701,33 @@
       <c r="P30" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="Q30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -2599,6 +3778,33 @@
       <c r="P31" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="Q31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2622,6 +3828,33 @@
       <c r="G32" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2643,6 +3876,33 @@
         <v>2</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="0" t="s">
         <v>2</v>
       </c>
     </row>
